--- a/Stand Up Comedy(Back Half) (Responses) (1).xlsx
+++ b/Stand Up Comedy(Back Half) (Responses) (1).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
   <si>
     <t>Timestamp</t>
   </si>
@@ -55,6 +55,21 @@
     <t>https://drive.google.com/open?id=170NC9uN2FzhGJbQav6XvHoWIjfodYpOC</t>
   </si>
   <si>
+    <t xml:space="preserve">Sarthak Chaturvedi </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1cQOYBkWOvoymHDL15sam-Tm4QqdFyGyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>220090013@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>REFUND</t>
+  </si>
+  <si>
     <t>Dhanush H N</t>
   </si>
   <si>
@@ -119,6 +134,252 @@
   </si>
   <si>
     <t>222081004@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>PREKSHA PATANGE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-N7dWUn4QflyspD8eaLaox587-LZH5hP</t>
+  </si>
+  <si>
+    <t>mc23bt029@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Tiyasa Das</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18dbjyt08OfC8LxEVGl7Hi2A-KQhn-hBt</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>me23bt014@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Neelpramatha K K</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1yK4WNPliSIRIi_VBMFhqyO2KiZD1hD9m</t>
+  </si>
+  <si>
+    <t>cs23bt048@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srihari Gonahal </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UHo-wEH2yjwRrwNURtbqRauWYthOli1j</t>
+  </si>
+  <si>
+    <t>ee23bt030@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Mukta Vedpathak</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ViZtJshJzMovSsAENI3cvCcPJVuTNJ1O</t>
+  </si>
+  <si>
+    <t>220110014@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omkar Kulkarni </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11JaqhJHOtiy2YkpkHLiJr7xZAfboK7TL</t>
+  </si>
+  <si>
+    <t>220030032@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bidipta Saha </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZbSrHoRU-LgTIIOm_LxrXYQF0xoFw1jv</t>
+  </si>
+  <si>
+    <t>220150002@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Sai Sreeharsha Bolloju</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1vm4FFVomuTw45BziYtfibTzJWsZjXe5c</t>
+  </si>
+  <si>
+    <t>cs23bt058@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>NAKKA SHEETAL RAO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gXRzSVw-XX0nAJUclnJP4zcXs7jpky3l</t>
+  </si>
+  <si>
+    <t>ee23bt051@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maitreyee Kumbhojkar </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13VcdTwzp6VFrOt4pKyPIoVf9vHHWnTK9</t>
+  </si>
+  <si>
+    <t>ee23bt017@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haswika </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IqgHI4veFTeZp9myzdszmQfhbB78JUWy</t>
+  </si>
+  <si>
+    <t>ee23bt020@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Smaran </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1h3QjnNbGq2nSJFmLRCXpGTSga-P_MOKz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment done </t>
+  </si>
+  <si>
+    <t>cs23bt039@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Aabha Devnikar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qcRgY2eu-9JDmnKKozN0hS2sHFnQeXmD</t>
+  </si>
+  <si>
+    <t>ch23bt002@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Shreya S Bhat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1fOB6umQrjJkgEVl3hHB-ESh20Ms_Vu1Y</t>
+  </si>
+  <si>
+    <t>mc23bt013@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Pallavi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1zPHn7imrZtLKM2-9IqqT2p5VL1BsffoW</t>
+  </si>
+  <si>
+    <t>me23bt034@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Yashaswini L</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1fO_K6SwZgmK8-stpshtMG2njSwlCU_JW</t>
+  </si>
+  <si>
+    <t>cs23bt060@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Harsh Oganja</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1sThbfP06ZPu_GgBBdPtR4ED0SiO9xkxM</t>
+  </si>
+  <si>
+    <t>220010037@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Prabhav patel</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1O8uE6WEAGpWDN0alqHYFWrTowHq2Wz1F</t>
+  </si>
+  <si>
+    <t>220120013@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Yash Gholkar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dqGlXFdKJnDKM5MK4mn-Q1xpyRUx6-Mm</t>
+  </si>
+  <si>
+    <t>220010063@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Vedansh Chaudhary</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Vlad2XI5EwGhdfgK83DcWbGNDGuYSxss</t>
+  </si>
+  <si>
+    <t>225100040@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Anupam Rabha</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dy3oflHkd2chFoEoXKwmQ4HTJo3-lwod</t>
+  </si>
+  <si>
+    <t>220020007@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Om Nilesh Nakrani</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZkjIldn7wwXtaYdhD18vxwIet2cqJ8PP</t>
+  </si>
+  <si>
+    <t>220010038@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Krunal Patel</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1AJz1g6ZUUY5l55PjR9ek5iu82bCnMbSq</t>
+  </si>
+  <si>
+    <t>225100022@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Harshit verma</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1X3JmprKV4S3rQx53R4pVwaqaCXRqEyTz</t>
+  </si>
+  <si>
+    <t>225100013@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditi Khedkar </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1d6HFz7ZtUHM-wgxcLIjZln_7iYbk9AoS</t>
+  </si>
+  <si>
+    <t>220020002@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Sarth Rajain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IIL22MD9ZYdCBFbmEK59Hlz4oYktuw8W</t>
+  </si>
+  <si>
+    <t>Parsec is shit.</t>
+  </si>
+  <si>
+    <t>210010048@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>refund</t>
   </si>
 </sst>
 </file>
@@ -145,7 +406,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +425,12 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -171,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -195,6 +462,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -486,27 +756,46 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="3">
+        <v>45298.418363171295</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
         <v>45298.465993460646</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -514,16 +803,16 @@
         <v>45298.493286875004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -531,16 +820,16 @@
         <v>45298.84324773148</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -548,16 +837,16 @@
         <v>45298.901815000005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -565,16 +854,16 @@
         <v>45298.90999211806</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -582,16 +871,16 @@
         <v>45299.01113760417</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -599,16 +888,473 @@
         <v>45299.62660300926</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>45300.510464293984</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>45300.51220229166</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>45300.5879315162</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>45300.5897905787</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>45300.81096510417</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>45300.81525900463</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>45300.834376238425</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>45300.8380722338</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>45300.88461291666</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>45300.90609408564</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>45300.912142256944</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>45300.91850936343</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3">
+        <v>45300.93261315972</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>45300.93766553241</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>45300.937723553245</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>45300.96152582176</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>45300.984102546296</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3">
+        <v>45300.98494967593</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3">
+        <v>45300.985626458336</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3">
+        <v>45300.98644833334</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3">
+        <v>45300.989123541665</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3">
+        <v>45300.99843555556</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3">
+        <v>45300.99960319445</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3">
+        <v>45301.00007799768</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3">
+        <v>45301.08758265046</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3">
+        <v>45301.472681493055</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -616,14 +1362,41 @@
     <hyperlink r:id="rId1" ref="D2"/>
     <hyperlink r:id="rId2" ref="D3"/>
     <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D6"/>
-    <hyperlink r:id="rId5" ref="D7"/>
-    <hyperlink r:id="rId6" ref="D8"/>
-    <hyperlink r:id="rId7" ref="D9"/>
-    <hyperlink r:id="rId8" ref="D10"/>
-    <hyperlink r:id="rId9" ref="D11"/>
-    <hyperlink r:id="rId10" ref="D12"/>
+    <hyperlink r:id="rId4" ref="D5"/>
+    <hyperlink r:id="rId5" ref="D6"/>
+    <hyperlink r:id="rId6" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" ref="D9"/>
+    <hyperlink r:id="rId9" ref="D10"/>
+    <hyperlink r:id="rId10" ref="D11"/>
+    <hyperlink r:id="rId11" ref="D12"/>
+    <hyperlink r:id="rId12" ref="D13"/>
+    <hyperlink r:id="rId13" ref="D14"/>
+    <hyperlink r:id="rId14" ref="D15"/>
+    <hyperlink r:id="rId15" ref="D16"/>
+    <hyperlink r:id="rId16" ref="D17"/>
+    <hyperlink r:id="rId17" ref="D18"/>
+    <hyperlink r:id="rId18" ref="D19"/>
+    <hyperlink r:id="rId19" ref="D20"/>
+    <hyperlink r:id="rId20" ref="D21"/>
+    <hyperlink r:id="rId21" ref="D22"/>
+    <hyperlink r:id="rId22" ref="D23"/>
+    <hyperlink r:id="rId23" ref="D24"/>
+    <hyperlink r:id="rId24" ref="D25"/>
+    <hyperlink r:id="rId25" ref="D26"/>
+    <hyperlink r:id="rId26" ref="D27"/>
+    <hyperlink r:id="rId27" ref="D28"/>
+    <hyperlink r:id="rId28" ref="D29"/>
+    <hyperlink r:id="rId29" ref="D30"/>
+    <hyperlink r:id="rId30" ref="D31"/>
+    <hyperlink r:id="rId31" ref="D32"/>
+    <hyperlink r:id="rId32" ref="D33"/>
+    <hyperlink r:id="rId33" ref="D34"/>
+    <hyperlink r:id="rId34" ref="D35"/>
+    <hyperlink r:id="rId35" ref="D36"/>
+    <hyperlink r:id="rId36" ref="D37"/>
+    <hyperlink r:id="rId37" ref="D38"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>